--- a/config.xlsx
+++ b/config.xlsx
@@ -391,7 +391,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2">
-        <v>45727.9918116824</v>
+        <v>45736.95756997278</v>
       </c>
     </row>
   </sheetData>
